--- a/452-Check List-KTP.xlsx
+++ b/452-Check List-KTP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ktp/Desktop/1 Projects/6 T1-2025/(TA) UNIT LAB II/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ktp/Documents/GitHub/452-lab4-status/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9F9A2F-14C4-6E48-99CB-E764C04F1A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520C33CE-A7EB-3244-B278-DBBDAE9C1129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2140" windowWidth="30240" windowHeight="15880" xr2:uid="{5A7000B4-4C07-914F-9091-E869C175D3EB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Group</t>
   </si>
@@ -56,43 +56,13 @@
     <t>NO.</t>
   </si>
   <si>
-    <t>Remark</t>
-  </si>
-  <si>
-    <t>Received</t>
-  </si>
-  <si>
-    <t>Not received</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Pending</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
     <t>Full Report</t>
   </si>
   <si>
-    <t>File Name</t>
-  </si>
-  <si>
     <t>Calculation</t>
-  </si>
-  <si>
-    <t>﻿GX_ScFM-CT-04-003-G-452-Lab4</t>
-  </si>
-  <si>
-    <t>GX_Prelab-452-Lab4</t>
-  </si>
-  <si>
-    <t>GX_Full Report-452-Lab4</t>
-  </si>
-  <si>
-    <t>GX_Full Report Calculation-452-Lab4</t>
   </si>
   <si>
     <t>Over Due</t>
@@ -197,7 +167,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -212,12 +182,6 @@
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -252,14 +216,17 @@
         </ext>
       </extLst>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
-          <xfpb:xfComplement i="0"/>
-        </ext>
-      </extLst>
-    </xf>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -612,15 +579,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7750290C-54DE-7A47-AC06-BA4D62DF4D23}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="10"/>
+    <col min="1" max="1" width="10.83203125" style="8"/>
     <col min="2" max="3" width="10.83203125" style="1"/>
     <col min="4" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -632,9 +599,9 @@
     <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>11</v>
+    <row r="1" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>5</v>
@@ -652,69 +619,61 @@
         <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="17">
-        <v>1</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="B2" s="11">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12">
+        <v>9</v>
+      </c>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="17"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
         <v>45895</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="9">
         <v>8</v>
       </c>
-      <c r="E2" s="11">
-        <v>1</v>
-      </c>
-      <c r="F2" s="11">
-        <v>1</v>
-      </c>
-      <c r="G2" s="11">
+      <c r="E2" s="9">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9">
+        <v>1</v>
+      </c>
+      <c r="G2" s="9">
         <v>1</v>
       </c>
       <c r="H2" s="5">
         <v>1</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="10">
         <f>C2+14</f>
         <v>45909</v>
       </c>
-      <c r="J2" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="17">
-        <v>0</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="b">
+      <c r="J2" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="b">
         <v>0</v>
       </c>
       <c r="B3" s="5">
@@ -734,26 +693,23 @@
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="12">
+      <c r="I3" s="10">
         <f t="shared" ref="I3:I11" si="0">C3+14</f>
         <v>45916</v>
       </c>
-      <c r="J3" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="B4" s="11">
+      <c r="J3" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="18"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9">
         <v>3</v>
       </c>
       <c r="C4" s="6">
@@ -770,16 +726,20 @@
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="12">
+      <c r="I4" s="10">
         <f t="shared" si="0"/>
         <v>45923</v>
       </c>
-      <c r="J4" s="16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="b">
+      <c r="J4" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="b">
         <v>0</v>
       </c>
       <c r="B5" s="5">
@@ -799,19 +759,23 @@
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="12">
+      <c r="I5" s="10">
         <f t="shared" si="0"/>
         <v>45930</v>
       </c>
-      <c r="J5" s="16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="B6" s="11">
+      <c r="J5" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" s="9">
         <v>5</v>
       </c>
       <c r="C6" s="6">
@@ -824,16 +788,20 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="12">
+      <c r="I6" s="10">
         <f t="shared" si="0"/>
         <v>45951</v>
       </c>
-      <c r="J6" s="16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="b">
+      <c r="J6" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="b">
         <v>0</v>
       </c>
       <c r="B7" s="5">
@@ -849,22 +817,23 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="12">
+      <c r="I7" s="10">
         <f t="shared" si="0"/>
         <v>45958</v>
       </c>
-      <c r="J7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="B8" s="11">
+      <c r="J7" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="19"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="B8" s="9">
         <v>7</v>
       </c>
       <c r="C8" s="6">
@@ -877,19 +846,17 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="12">
+      <c r="I8" s="10">
         <f t="shared" si="0"/>
         <v>45965</v>
       </c>
-      <c r="J8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="b">
+      <c r="J8" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="b">
         <v>0</v>
       </c>
       <c r="B9" s="5">
@@ -905,22 +872,20 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="12">
+      <c r="I9" s="10">
         <f t="shared" si="0"/>
         <v>45972</v>
       </c>
-      <c r="J9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="B10" s="11">
+      <c r="J9" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="B10" s="9">
         <v>9</v>
       </c>
       <c r="C10" s="6">
@@ -933,19 +898,17 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="12">
+      <c r="I10" s="10">
         <f t="shared" si="0"/>
         <v>45979</v>
       </c>
-      <c r="J10" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="b">
+      <c r="J10" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="b">
         <v>0</v>
       </c>
       <c r="B11" s="5">
@@ -961,20 +924,18 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="12">
+      <c r="I11" s="10">
         <f t="shared" si="0"/>
         <v>45993</v>
       </c>
-      <c r="J11" s="16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L13" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J11" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L13" s="2"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
